--- a/data_calidad_del_agua.xlsx
+++ b/data_calidad_del_agua.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,227 +393,876 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>SUMA(Dissolved Oxygen)</v>
+        <v>SUM(Dissolved Oxygen)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C2">
-        <v>4.84</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C3">
-        <v>4.87</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C4">
-        <v>4.88</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C6">
-        <v>4.91</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C7">
-        <v>4.92</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C8">
-        <v>4.92</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C9">
-        <v>4.84</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C10">
-        <v>4.82</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C11">
-        <v>4.85</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C12">
-        <v>4.85</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C13">
-        <v>4.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C14">
-        <v>4.82</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C15">
-        <v>4.82</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C16">
-        <v>4.86</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C17">
-        <v>4.88</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C18">
-        <v>4.89</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C19">
-        <v>4.89</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C20">
-        <v>4.9</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C21">
-        <v>7.38</v>
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>5.11</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -635,227 +1284,876 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>SUMA(Temperature)</v>
+        <v>SUM(Temperature)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C2">
-        <v>31.35</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C3">
-        <v>31.34</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C4">
-        <v>31.33</v>
+        <v>30.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C5">
-        <v>31.32</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C6">
-        <v>31.32</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C7">
-        <v>31.3</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C8">
-        <v>31.28</v>
+        <v>30.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C9">
-        <v>31.27</v>
+        <v>30.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C10">
-        <v>31.25</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C11">
-        <v>31.23</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C12">
-        <v>31.2</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C13">
-        <v>31.17</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C14">
-        <v>31.12</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C15">
-        <v>31.08</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C16">
-        <v>31.05</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C17">
-        <v>31.02</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C18">
-        <v>31.01</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C19">
-        <v>31.01</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C20">
-        <v>31.03</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C21">
-        <v>27.21</v>
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>31.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>31.09</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>31.06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>31.39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>31.48</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>31.41</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>31.33</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>30.93</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +2162,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,227 +2175,876 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>SUMA(Turbidity)</v>
+        <v>SUM(Turbidity)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C2">
-        <v>295.3</v>
+        <v>486.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C3">
-        <v>298.7</v>
+        <v>511.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C4">
-        <v>322</v>
+        <v>557.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C5">
-        <v>300.9</v>
+        <v>509.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C6">
-        <v>305.5</v>
+        <v>465.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C7">
-        <v>286.4</v>
+        <v>506.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C8">
-        <v>306.4</v>
+        <v>474.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C9">
-        <v>322.7</v>
+        <v>525.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C10">
-        <v>331.2</v>
+        <v>549.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C11">
-        <v>353.5</v>
+        <v>516.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C12">
-        <v>346.1</v>
+        <v>460.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C13">
-        <v>349.5</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C14">
-        <v>359.8</v>
+        <v>508.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C15">
-        <v>369.4</v>
+        <v>520.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C16">
-        <v>384.1</v>
+        <v>478.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C17">
-        <v>330.5</v>
+        <v>494.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C18">
-        <v>330.7</v>
+        <v>450.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C19">
-        <v>353.6</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C20">
-        <v>348.7</v>
+        <v>338.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C21">
-        <v>0.29</v>
+        <v>418.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>455.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>299.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>377.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>261.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
+        <v>243.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>239.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>361.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>278.7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>341.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>419.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>342.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>348.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>343.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>374.6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>378.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>319.7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>488.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>452.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>281.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>798.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>835.7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>769.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>793.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>905.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>658.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>811.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>796.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>833.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>851.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>849.8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>852.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>806.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>750.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>721.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>834.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>745.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>681.8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>773.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>707.7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>685.3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>764.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>616.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>606.7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>714.3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>633.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>758.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>531.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>734.7</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +3053,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1119,227 +3066,876 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>SUMA(Conductivity)</v>
+        <v>SUM(Conductivity)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C2">
-        <v>162.4</v>
+        <v>362.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C3">
-        <v>162.3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C4">
-        <v>162.4</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C5">
-        <v>162.3</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C6">
-        <v>162</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C7">
-        <v>161.6</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C8">
-        <v>161.8</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C9">
-        <v>161.8</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C10">
-        <v>162</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C11">
-        <v>161.8</v>
+        <v>359.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C12">
-        <v>161.7</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C13">
-        <v>161.7</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C14">
-        <v>161.6</v>
+        <v>359.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C15">
-        <v>161.6</v>
+        <v>360.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C16">
-        <v>161.2</v>
+        <v>362.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C17">
-        <v>161.1</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C18">
-        <v>161.3</v>
+        <v>365.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C19">
-        <v>161</v>
+        <v>365.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C20">
-        <v>160.9</v>
+        <v>366.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>366.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>367.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>367.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>366.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>366.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>365.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>364.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>364.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>363.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>362.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>362.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>361.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>266.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>265.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>264.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>264.6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>264.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>265.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>268.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>269.1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>269.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>268.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>268.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>267.8</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +3944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1361,15 +3957,15 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>RECDIST(Depth)</v>
+        <v>CNTD(Depth)</v>
       </c>
       <c r="D1" t="str">
-        <v>SUMA(Conductivity)</v>
+        <v>SUM(Conductivity)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1378,12 +3974,12 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>162.4</v>
+        <v>362.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1392,12 +3988,12 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>162.3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1406,12 +4002,12 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>162.4</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1420,12 +4016,12 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>162.3</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1434,12 +4030,12 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>162</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1448,12 +4044,12 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>161.6</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1462,12 +4058,12 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>161.8</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1476,12 +4072,12 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>161.8</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1490,12 +4086,12 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>162</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1504,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>161.8</v>
+        <v>359.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1518,12 +4114,12 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>161.7</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1532,12 +4128,12 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>161.7</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1546,12 +4142,12 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>161.6</v>
+        <v>359.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1560,12 +4156,12 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>161.6</v>
+        <v>360.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1574,12 +4170,12 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>161.2</v>
+        <v>362.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1588,12 +4184,12 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>161.1</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1602,12 +4198,12 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>161.3</v>
+        <v>365.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1616,12 +4212,12 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>161</v>
+        <v>365.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1630,12 +4226,12 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>160.9</v>
+        <v>366.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1644,7 +4240,833 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>366.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>367.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>367.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>366.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>366.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>365.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>364.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>364.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>363.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>362.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>362.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>361.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>266.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>265.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>264.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>264.6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>264.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>265.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>266.8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>268.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>269.1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>270.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>269.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>268.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>268.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>267.8</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +5075,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1666,89 +5088,89 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>SUMA(Ph)</v>
+        <v>SUM(Ph)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4/8/2025 0:12:39</v>
+        <v>8/8/2025 00:29:11</v>
       </c>
       <c r="B2" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C2">
-        <v>7.05</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4/8/2025 0:43:12</v>
+        <v>8/8/2025 01:28:48</v>
       </c>
       <c r="B3" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C3">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4/8/2025 1:13:44</v>
+        <v>8/8/2025 01:59:21</v>
       </c>
       <c r="B4" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C4">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4/8/2025 1:44:17</v>
+        <v>8/8/2025 02:29:54</v>
       </c>
       <c r="B5" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C5">
-        <v>7.05</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4/8/2025 2:14:50</v>
+        <v>8/8/2025 03:30:58</v>
       </c>
       <c r="B6" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C6">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4/8/2025 2:45:22</v>
+        <v>8/8/2025 04:01:31</v>
       </c>
       <c r="B7" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C7">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4/8/2025 3:15:55</v>
+        <v>8/8/2025 04:32:04</v>
       </c>
       <c r="B8" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C8">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>4/8/2025 3:46:28</v>
+        <v>8/8/2025 05:02:37</v>
       </c>
       <c r="B9" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1759,18 +5181,18 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4/8/2025 4:17:01</v>
+        <v>8/8/2025 05:33:10</v>
       </c>
       <c r="B10" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C10">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4/8/2025 4:47:34</v>
+        <v>8/8/2025 06:03:42</v>
       </c>
       <c r="B11" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1781,7 +5203,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4/8/2025 5:18:06</v>
+        <v>8/8/2025 06:34:15</v>
       </c>
       <c r="B12" t="str">
         <v>Calidad del agua - Aguas arriba</v>
@@ -1792,101 +5214,750 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4/8/2025 5:48:39</v>
+        <v>8/8/2025 07:04:48</v>
       </c>
       <c r="B13" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C13">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4/8/2025 6:19:12</v>
+        <v>8/8/2025 07:35:21</v>
       </c>
       <c r="B14" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C14">
-        <v>7.04</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>4/8/2025 6:49:45</v>
+        <v>8/8/2025 08:05:54</v>
       </c>
       <c r="B15" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C15">
-        <v>7.06</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4/8/2025 7:20:17</v>
+        <v>8/8/2025 08:36:29</v>
       </c>
       <c r="B16" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C16">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>4/8/2025 7:50:50</v>
+        <v>8/8/2025 09:07:02</v>
       </c>
       <c r="B17" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C17">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>4/8/2025 8:21:23</v>
+        <v>8/8/2025 09:37:35</v>
       </c>
       <c r="B18" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C18">
-        <v>7.07</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4/8/2025 8:51:56</v>
+        <v>8/8/2025 10:08:08</v>
       </c>
       <c r="B19" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C19">
-        <v>7.07</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>4/8/2025 9:22:28</v>
+        <v>8/8/2025 10:38:41</v>
       </c>
       <c r="B20" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C20">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>4/8/2025 9:53:01</v>
+        <v>8/8/2025 11:09:13</v>
       </c>
       <c r="B21" t="str">
         <v>Calidad del agua - Aguas arriba</v>
       </c>
       <c r="C21">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8/8/2025 11:39:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8/8/2025 12:10:19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C23">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8/8/2025 12:40:52</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8/8/2025 13:11:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C25">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8/8/2025 13:41:58</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C26">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8/8/2025 14:12:31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C27">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8/8/2025 14:43:03</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C28">
         <v>6.97</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025 15:13:36</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C29">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025 15:44:09</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C30">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025 16:14:42</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C31">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025 16:45:15</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C32">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025 17:15:48</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C33">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025 17:46:27</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C34">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025 18:17:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C35">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025 18:47:35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C36">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025 19:18:08</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C37">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025 19:48:40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C38">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025 20:19:13</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C39">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025 20:49:46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025 21:20:19</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025 21:50:51</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C42">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025 22:21:24</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C43">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025 22:51:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C44">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025 23:22:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C45">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025 23:53:03</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Calidad del agua - Aguas arriba</v>
+      </c>
+      <c r="C46">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025 03:27:40</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C47">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025 03:58:13</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C48">
+        <v>8.96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025 04:28:46</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C49">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025 04:59:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C50">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025 05:29:51</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C51">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8/8/2025 06:27:56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C52">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8/8/2025 06:58:28</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C53">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8/8/2025 07:29:01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C54">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8/8/2025 07:59:34</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C55">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8/8/2025 08:30:07</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C56">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8/8/2025 09:28:11</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C57">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8/8/2025 09:58:43</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C58">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8/8/2025 10:29:15</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C59">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8/8/2025 10:59:48</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C60">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8/8/2025 11:30:21</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C61">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8/8/2025 12:28:26</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C62">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8/8/2025 12:58:59</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C63">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8/8/2025 13:29:32</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C64">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8/8/2025 14:00:05</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C65">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8/8/2025 14:30:38</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C66">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8/8/2025 15:28:41</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C67">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8/8/2025 16:29:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C68">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8/8/2025 17:00:18</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C69">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8/8/2025 17:30:51</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C70">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8/8/2025 18:28:56</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C71">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8/8/2025 18:59:29</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C72">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8/8/2025 19:30:02</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C73">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8/8/2025 20:00:35</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C74">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8/8/2025 20:31:07</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C75">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8/8/2025 21:29:11</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C76">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8/8/2025 21:59:44</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C77">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8/8/2025 22:30:17</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C78">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8/8/2025 23:00:56</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C79">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8/8/2025 23:31:28</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Calidad del agua - Aguas abajo</v>
+      </c>
+      <c r="C80">
+        <v>5.87</v>
       </c>
     </row>
   </sheetData>
